--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3125,11 +3125,7 @@
           <t>南通川山工业材料有限公司</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>91320691MA1MFW1UX2</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
           <t>邓勇</t>
@@ -3152,11 +3148,7 @@
           <t>南京连鸣祥贸易有限公司</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>91320111302543457L</t>
-        </is>
-      </c>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
           <t>王亮生</t>
